--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_168.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_168.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,175 +488,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4714285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.48, 25.94)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82), (36.52, 38.28), (9.26, 13.9)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:37.995918', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,272 +663,291 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.475</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.16, 31.44)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:45', '0:01:48.240000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:00:56.440000', '0:01:06.340000'), ('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(124.92, 129.88)]</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:44.200000', '0:00:52.320000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(90.78, 101.32), (41.58, 43.48)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -933,272 +956,228 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(11.94, 67.8)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(94.68, 110.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.18, 14.22)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
